--- a/designDocument/workman-description.xlsx
+++ b/designDocument/workman-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuant\Desktop\Module1\Module1_workman\designDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933DEBCA-68F5-4DDC-8007-0B6DEC926424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF33CE70-A64C-4C16-9BBA-276EBF677267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13820" yWindow="160" windowWidth="18680" windowHeight="9800" tabRatio="656" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
+    <workbookView xWindow="20640" yWindow="180" windowWidth="22830" windowHeight="14715" tabRatio="656" activeTab="1" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -979,7 +979,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>userInfor0 = [{ }, { }, { }, { }];</a:t>
+            <a:t>userInfor0 = [{ }, [ ], [ ],  [ ], [ ] ];</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1001,7 +1001,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>userInfor0 = [ user, itemsInCart, itemsInFavorite, itemsInSaved</a:t>
+            <a:t>userInfor0 = [ user, itemsInCart, itemsInFavorite, itemsInSaved, itemsBuyItAgain</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0">
@@ -1050,8 +1050,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1210581" y="7210400"/>
-          <a:ext cx="7187293" cy="2834822"/>
+          <a:off x="1204382" y="7217960"/>
+          <a:ext cx="7256992" cy="2834822"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -1400,8 +1400,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1210581" y="1797958"/>
-          <a:ext cx="7187293" cy="2834822"/>
+          <a:off x="1204382" y="1805518"/>
+          <a:ext cx="7256992" cy="2834822"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -3604,8 +3604,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1210581" y="11751957"/>
-          <a:ext cx="7187293" cy="2831647"/>
+          <a:off x="1204382" y="11756342"/>
+          <a:ext cx="7256992" cy="2834822"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -6758,14 +6758,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1682</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>145116</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>130970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>192181</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6780,8 +6780,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10345832" y="4002741"/>
-          <a:ext cx="2686049" cy="1855133"/>
+          <a:off x="9621932" y="6655595"/>
+          <a:ext cx="2678905" cy="2059780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6830,7 +6830,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6839,12 +6839,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>let userObject = {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
+            <a:t>function userObject(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6853,12 +6853,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    userId: userId,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
+            <a:t>    this.userId = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6867,10 +6867,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    fullName:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+            <a:t>    this.fullName = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6879,10 +6881,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> full</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
+            <a:t>    this.userName = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6891,12 +6895,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Name,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
+            <a:t>    this.email = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6905,12 +6909,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    userName: userName,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
+            <a:t>    this.password = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6919,12 +6923,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    email: email,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
+            <a:t>    type: "user";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6933,10 +6937,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    password:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+            <a:t>    status: "normal"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6945,74 +6951,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> password</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    type: "user",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    status: "normal" or "locked"</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>}</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7023,7 +6963,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>120183</xdr:rowOff>
+      <xdr:rowOff>17860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
@@ -7046,8 +6986,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8734425" y="4930308"/>
-          <a:ext cx="1611407" cy="670392"/>
+          <a:off x="8017669" y="7685485"/>
+          <a:ext cx="1604263" cy="772715"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8690,7 +8630,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0">
+            <a:rPr lang="en-US" sz="1400" b="0" strike="sngStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8699,12 +8639,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>let itemForOneUser = {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+            <a:t>function itemForOneUser (){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" strike="sngStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8713,21 +8653,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    itemName: itemName,</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+            <a:t>    this.itemId = [ ];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" strike="sngStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8736,12 +8667,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    itemId: [ ],</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+            <a:t>    this.itemQuantity =[ ];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" strike="sngStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8750,65 +8681,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    itemQuantity: [ ],</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    itemPrice: [ ],</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    img: imgSource</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>}</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8819,13 +8693,13 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>4150</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>70694</xdr:rowOff>
+      <xdr:rowOff>144777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>98418</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8840,8 +8714,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17811759" y="5644890"/>
-          <a:ext cx="2996590" cy="599224"/>
+          <a:off x="17138567" y="5722194"/>
+          <a:ext cx="3000271" cy="426723"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8885,12 +8759,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>//itemsInCart</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
+            <a:t>itemsInCart = [ ]; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8899,33 +8771,17 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>let  itemsInCart =  new</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>itemForOneUser();</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:t>   //item Id only</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8935,14 +8791,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>4150</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>107235</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>134959</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8957,8 +8813,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17811759" y="6443431"/>
-          <a:ext cx="3019002" cy="599224"/>
+          <a:off x="17138567" y="7113402"/>
+          <a:ext cx="3022683" cy="474848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8992,6 +8848,23 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
@@ -9002,46 +8875,24 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>//itemsInFavorite</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>let  itemsInFavorite =  new</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>itemForOneUser();</a:t>
-          </a:r>
+            <a:t>itemsInFavorite = [ ]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -9052,14 +8903,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>4150</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>179341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>582145</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9074,8 +8925,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17811759" y="7277537"/>
-          <a:ext cx="3029647" cy="599224"/>
+          <a:off x="17138567" y="7852258"/>
+          <a:ext cx="3033328" cy="487410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9109,6 +8960,23 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
@@ -9119,259 +8987,28 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>//itemsInSaved</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>let  itemsInSaved =  new</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>itemForOneUser();</a:t>
-          </a:r>
+            <a:t>itemsInSaved = [ ]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>389282</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>100366</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>593911</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>100366</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA38C259-6B49-4422-87DD-BE3109454A9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16358152" y="7579562"/>
-          <a:ext cx="1430455" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>484255</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>145745</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>484255</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Connector 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064CF3B1-225E-54EB-EB14-F29DC44B3DE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17066038" y="5910441"/>
-          <a:ext cx="0" cy="1692994"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>173448</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>173448</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946F4DA5-0B89-0041-1F07-8E5BCE37609E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17041224" y="5938144"/>
-          <a:ext cx="736177" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>488674</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>58953</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>58953</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA1A219-7E79-AA36-63BC-8A571C3D6167}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17070457" y="6776149"/>
-          <a:ext cx="706944" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -10144,6 +9781,581 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>314441</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>134269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0947588C-3DB1-4E72-8C3C-5F8E3981852F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16513969" y="9882187"/>
+          <a:ext cx="1981316" cy="1920207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//Item object constructor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function item(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.itemId = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.itemName = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.category = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.price = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.img = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.stock = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.type = 'item'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>219191</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>134269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665C0D6B-B4FA-40C4-975C-16E9F37A768E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18847594" y="9882187"/>
+          <a:ext cx="1981316" cy="1920207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//Item rating &amp; review object constructor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function itemRatingAndReview (){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.itemId = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.rating = 0;    //initial</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.review = []</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>4150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>134194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="TextBox 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B358DAD2-F0B8-D4C6-7BB1-1FBEF57441E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17138567" y="8569111"/>
+          <a:ext cx="3000271" cy="426722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>itemsBuyItAgain = [ ]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Right Brace 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A7A383-A99A-1E6E-5AB0-D43D1773267D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20002500" y="6900333"/>
+          <a:ext cx="804333" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>59530</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>55561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>219190</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>10582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59A1998-F55D-E259-AA88-A23C7C9C819B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20876947" y="7728478"/>
+          <a:ext cx="2001160" cy="717021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Optional</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21477,7 +21689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A36A3AB-75F8-48A0-8E70-2629D6FB9237}">
   <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -21565,11 +21777,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D800F0-F99C-47B6-B0F4-3731F0185DB9}">
   <dimension ref="A1:AQ101"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Q14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="R15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U31" sqref="U31"/>
+      <selection pane="bottomRight" activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/designDocument/workman-description.xlsx
+++ b/designDocument/workman-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuant\Desktop\Module1\Module1_workman\designDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF33CE70-A64C-4C16-9BBA-276EBF677267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD1939-C62C-479B-89BB-B2EF8B95D379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="180" windowWidth="22830" windowHeight="14715" tabRatio="656" activeTab="1" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
+    <workbookView xWindow="14960" yWindow="480" windowWidth="18420" windowHeight="10130" tabRatio="656" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
   <si>
     <t>customers</t>
   </si>
@@ -321,6 +321,9 @@
   <si>
     <t>Flag ở localStorage,  session</t>
   </si>
+  <si>
+    <t>*Thay alert bằng Snackbar</t>
+  </si>
 </sst>
 </file>
 
@@ -1050,8 +1053,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1204382" y="7217960"/>
-          <a:ext cx="7256992" cy="2834822"/>
+          <a:off x="1210581" y="7210400"/>
+          <a:ext cx="7187293" cy="2834822"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -1400,8 +1403,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1204382" y="1805518"/>
-          <a:ext cx="7256992" cy="2834822"/>
+          <a:off x="1210581" y="1797958"/>
+          <a:ext cx="7187293" cy="2834822"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -3604,8 +3607,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1204382" y="11756342"/>
-          <a:ext cx="7256992" cy="2834822"/>
+          <a:off x="1210581" y="11751957"/>
+          <a:ext cx="7187293" cy="2831647"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -21687,10 +21690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A36A3AB-75F8-48A0-8E70-2629D6FB9237}">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21767,6 +21770,11 @@
         <v>94</v>
       </c>
     </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21777,11 +21785,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D800F0-F99C-47B6-B0F4-3731F0185DB9}">
   <dimension ref="A1:AQ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="R15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X22" sqref="X22"/>
+      <selection pane="bottomRight" activeCell="AK31" sqref="AK31:AK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/designDocument/workman-description.xlsx
+++ b/designDocument/workman-description.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuant\Desktop\Module1\Module1_workman\designDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD1939-C62C-479B-89BB-B2EF8B95D379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D31F45-F368-4EF7-AEFA-BF7B11DED7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14960" yWindow="480" windowWidth="18420" windowHeight="10130" tabRatio="656" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
+    <workbookView xWindow="13940" yWindow="450" windowWidth="18860" windowHeight="9420" tabRatio="656" firstSheet="1" activeTab="2" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="admin" sheetId="1" r:id="rId2"/>
-    <sheet name="Item list" sheetId="8" r:id="rId3"/>
+    <sheet name="baka" sheetId="9" r:id="rId2"/>
+    <sheet name="admin" sheetId="1" r:id="rId3"/>
     <sheet name="shopping(index)" sheetId="4" r:id="rId4"/>
     <sheet name="cart" sheetId="5" r:id="rId5"/>
     <sheet name="sign up" sheetId="6" r:id="rId6"/>
     <sheet name="login" sheetId="7" r:id="rId7"/>
     <sheet name="function-desc" sheetId="2" r:id="rId8"/>
+    <sheet name="Item list" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
   <si>
     <t>customers</t>
   </si>
@@ -324,6 +325,13 @@
   <si>
     <t>*Thay alert bằng Snackbar</t>
   </si>
+  <si>
+    <t>https://www.w3schools.com/howto/howto_js_snackbar.asp</t>
+  </si>
+  <si>
+    <t>SignUp, Login : add Press Enter event.
+Add flag whoIsLogIn in sessionStorage</t>
+  </si>
 </sst>
 </file>
 
@@ -375,12 +383,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -396,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,6 +446,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -456,7 +480,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7010400" cy="3928468"/>
@@ -512,13 +536,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -567,13 +591,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1552575</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -622,13 +646,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -677,13 +701,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -732,13 +756,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -787,13 +811,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -842,13 +866,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -897,6 +921,193 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>570675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>56888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754743DC-70AF-5D66-CC84-0C3F80A48BA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="247650"/>
+          <a:ext cx="6600000" cy="2095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Callout: Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAC890B-8064-E577-73D2-24C5C6B34F54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="466725"/>
+          <a:ext cx="209550" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 55114"/>
+            <a:gd name="adj2" fmla="val 96212"/>
+            <a:gd name="adj3" fmla="val 17046"/>
+            <a:gd name="adj4" fmla="val 1829849"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Callout: Line 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE23F65-850C-EE88-2826-41A51F985F01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="1724025"/>
+          <a:ext cx="295275" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 55114"/>
+            <a:gd name="adj2" fmla="val 96212"/>
+            <a:gd name="adj3" fmla="val 582430"/>
+            <a:gd name="adj4" fmla="val 823398"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1053,8 +1264,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1210581" y="7210400"/>
-          <a:ext cx="7187293" cy="2834822"/>
+          <a:off x="1206637" y="7311369"/>
+          <a:ext cx="7182954" cy="2876235"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -1380,7 +1591,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>82549</xdr:colOff>
+      <xdr:colOff>88899</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
@@ -1403,8 +1614,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1210581" y="1797958"/>
-          <a:ext cx="7187293" cy="2834822"/>
+          <a:off x="1212987" y="1821623"/>
+          <a:ext cx="7176604" cy="2876235"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -1465,8 +1676,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3226173" y="2138643"/>
-            <a:ext cx="1614767" cy="2197101"/>
+            <a:off x="3223031" y="2138643"/>
+            <a:ext cx="1615481" cy="2197101"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1967,9 +2178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
+      <xdr:colOff>529852</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>48092</xdr:rowOff>
+      <xdr:rowOff>54442</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2217,7 +2428,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>407794</xdr:colOff>
+      <xdr:colOff>417319</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>22410</xdr:rowOff>
     </xdr:to>
@@ -2623,7 +2834,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>437029</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>126533</xdr:rowOff>
+      <xdr:rowOff>129708</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2991,7 +3202,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>403411</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>126533</xdr:rowOff>
+      <xdr:rowOff>129708</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3359,7 +3570,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>358588</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>126533</xdr:rowOff>
+      <xdr:rowOff>129708</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3607,8 +3818,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1210581" y="11751957"/>
-          <a:ext cx="7187293" cy="2831647"/>
+          <a:off x="1206637" y="11919187"/>
+          <a:ext cx="7182954" cy="2873060"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -4318,9 +4529,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>486826</xdr:colOff>
+      <xdr:colOff>493176</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>51101</xdr:rowOff>
+      <xdr:rowOff>54276</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4515,7 +4726,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>501399</xdr:colOff>
+      <xdr:colOff>510924</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>54274</xdr:rowOff>
     </xdr:to>
@@ -4923,7 +5134,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>198784</xdr:colOff>
+      <xdr:colOff>205134</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>155244</xdr:rowOff>
     </xdr:to>
@@ -5140,7 +5351,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>209989</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>144037</xdr:rowOff>
+      <xdr:rowOff>150387</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5182,7 +5393,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>389282</xdr:colOff>
+      <xdr:colOff>395632</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>174314</xdr:rowOff>
     </xdr:to>
@@ -5226,7 +5437,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>372716</xdr:colOff>
+      <xdr:colOff>379066</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>129422</xdr:rowOff>
     </xdr:to>
@@ -5316,7 +5527,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>135446</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>144037</xdr:rowOff>
+      <xdr:rowOff>150387</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5360,7 +5571,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>168576</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>144037</xdr:rowOff>
+      <xdr:rowOff>150387</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5765,7 +5976,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>202510</xdr:colOff>
+      <xdr:colOff>205685</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>21894</xdr:rowOff>
     </xdr:to>
@@ -5802,23 +6013,323 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>354691</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>109622</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>124829</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>459392</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465BD6FB-470D-4851-BFDC-4609F039E081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="403411" y="3059207"/>
+          <a:ext cx="380952" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>403410</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>98051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>98051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23D0BCB-5D3C-F6DA-5F2B-4D1E64C9DDAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14377145" y="9286875"/>
+          <a:ext cx="2364443" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>403410</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>120463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>120463</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31EB1047-288C-57EC-7F51-E05AF82A0C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14377145" y="8547287"/>
+          <a:ext cx="2364443" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>109256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>109256</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B790E11-1AA5-1DCA-148F-A164C4DB6927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14511618" y="8917080"/>
+          <a:ext cx="2229970" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190468</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417A936C-6AF8-6A6E-66C1-802776460D1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="8458200"/>
+          <a:ext cx="247619" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>439829</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>52667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA304DD-3DF2-C921-C706-099E4AA6E9B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7126379" y="10387292"/>
+          <a:ext cx="1036546" cy="642658"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30258</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>164167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8A2165-240E-6312-5DB7-749E329E03DA}"/>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46026A9D-DB92-0DFB-AE3F-C5E9D7F3A9E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5826,8 +6337,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13194391" y="13873247"/>
-          <a:ext cx="1988459" cy="1920207"/>
+          <a:off x="7936008" y="11070292"/>
+          <a:ext cx="2227168" cy="921683"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5862,179 +6373,42 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>//Item object constructor</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>let item = {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    id: itemId,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    name:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> item</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Name,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    category: category,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    price: price,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    img: imgSource,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    stock: stock,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    type: "item"</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Edit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- Edit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> all content </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>except ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- Edit &lt;-&gt; Save button toggle</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="dk1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6042,67 +6416,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>459392</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>118740</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465BD6FB-470D-4851-BFDC-4609F039E081}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403411" y="3059207"/>
-          <a:ext cx="380952" cy="342857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>403410</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>98051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>98051</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>420779</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>186017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23D0BCB-5D3C-F6DA-5F2B-4D1E64C9DDAF}"/>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF96C39-C6A1-ACA3-608F-3593E8001423}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6110,8 +6440,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14377145" y="9286875"/>
-          <a:ext cx="2364443" cy="0"/>
+          <a:off x="5888129" y="10330142"/>
+          <a:ext cx="465046" cy="776008"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6139,226 +6469,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>403410</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>120463</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>120463</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31EB1047-288C-57EC-7F51-E05AF82A0C5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14377145" y="8547287"/>
-          <a:ext cx="2364443" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>109256</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>109256</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B790E11-1AA5-1DCA-148F-A164C4DB6927}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14511618" y="8917080"/>
-          <a:ext cx="2229970" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190468</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>133313</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417A936C-6AF8-6A6E-66C1-802776460D1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8458200" y="8458200"/>
-          <a:ext cx="247619" cy="295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>439829</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>52667</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA304DD-3DF2-C921-C706-099E4AA6E9B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7126379" y="10387292"/>
-          <a:ext cx="1036546" cy="642658"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>30258</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>164167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>58833</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>21292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="TextBox 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46026A9D-DB92-0DFB-AE3F-C5E9D7F3A9E8}"/>
+        <xdr:cNvPr id="32" name="TextBox 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CECE4B-42D2-01CD-5EED-DFF751EAE910}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6366,7 +6493,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7936008" y="11070292"/>
+          <a:off x="5526183" y="11117917"/>
           <a:ext cx="2227168" cy="921683"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6403,35 +6530,27 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Edit</a:t>
+            <a:t>Delete</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>- Edit</a:t>
+            <a:t>- Delete</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> all content </a:t>
-          </a:r>
+            <a:t> item</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>except ID</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>- Edit &lt;-&gt; Save button toggle</a:t>
+            <a:t>* Share with delete user</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -6445,32 +6564,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>420779</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>186017</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457758</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>155761</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF96C39-C6A1-ACA3-608F-3593E8001423}"/>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF9D8D0-0237-A3A2-D75B-9C3A8853481E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5888129" y="10330142"/>
-          <a:ext cx="465046" cy="776008"/>
+        <a:xfrm flipV="1">
+          <a:off x="7102846" y="11586882"/>
+          <a:ext cx="237007" cy="424703"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6498,23 +6617,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>58833</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>21292</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>249333</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="TextBox 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CECE4B-42D2-01CD-5EED-DFF751EAE910}"/>
+        <xdr:cNvPr id="37" name="TextBox 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA41B05F-DA60-3A09-1C91-4CBD5292B370}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6522,8 +6641,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5526183" y="11117917"/>
-          <a:ext cx="2227168" cy="921683"/>
+          <a:off x="6894421" y="7967382"/>
+          <a:ext cx="2209239" cy="811867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6559,27 +6678,45 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Delete</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>- Delete</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> item</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>Search (optional)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- by</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>* Share with delete user</a:t>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> any words input</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- show match items</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*Share with Search user</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -6593,76 +6730,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457758</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>155761</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF9D8D0-0237-A3A2-D75B-9C3A8853481E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7102846" y="11586882"/>
-          <a:ext cx="237007" cy="424703"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>249333</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1682</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>130970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>192181</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="TextBox 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA41B05F-DA60-3A09-1C91-4CBD5292B370}"/>
+        <xdr:cNvPr id="38" name="TextBox 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E80D230-26B8-6CE3-BEFC-C2AA45D1C026}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6670,8 +6754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6894421" y="7967382"/>
-          <a:ext cx="2209239" cy="811867"/>
+          <a:off x="9621932" y="6655595"/>
+          <a:ext cx="2678905" cy="2059780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6706,52 +6790,143 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Search (optional)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>- by</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//User object constructor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t> any words input</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function userObject(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>- show match items</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.userId = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>*Share with Search user</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.fullName = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.userName = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.email = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.password = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    type: "user";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    status: "normal"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6759,23 +6934,78 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>17860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1682</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>130970</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>192181</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F1732A1-9FF3-E253-A0FE-8E8E3B3FCA0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8017669" y="7685485"/>
+          <a:ext cx="1604263" cy="772715"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="TextBox 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E80D230-26B8-6CE3-BEFC-C2AA45D1C026}"/>
+        <xdr:cNvPr id="49" name="TextBox 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A45BD4-BABE-19FC-FF8F-F7D1414A2A60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6783,8 +7013,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9621932" y="6655595"/>
-          <a:ext cx="2678905" cy="2059780"/>
+          <a:off x="10355357" y="6000750"/>
+          <a:ext cx="3636867" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6819,143 +7049,117 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Lock/Unlock</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>//User object constructor</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0">
+            </a:rPr>
+            <a:t>Change </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>function userObject(){</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0">
+            </a:rPr>
+            <a:t>user.status</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.userId = '';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0">
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.fullName = '';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0">
+            </a:rPr>
+            <a:t>value.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.userName = '';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0">
+            </a:rPr>
+            <a:t>- locked: can't buy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.email = '';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0">
+            </a:rPr>
+            <a:t>- normal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.password = '';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0">
+            </a:rPr>
+            <a:t>: no resistance</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    type: "user";</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0">
+            </a:rPr>
+            <a:t>Change </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    status: "normal"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0">
+            </a:rPr>
+            <a:t>color</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
+            </a:rPr>
+            <a:t> of display </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(for example: background-color gray; opacity 0.5)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6964,33 +7168,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>17860</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1682</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F1732A1-9FF3-E253-A0FE-8E8E3B3FCA0D}"/>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1B12DD-71EE-A6A4-A5F4-1D2915E271DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="38" idx="1"/>
+          <a:endCxn id="49" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8017669" y="7685485"/>
-          <a:ext cx="1604263" cy="772715"/>
+        <a:xfrm>
+          <a:off x="8810625" y="6705600"/>
+          <a:ext cx="1544732" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7018,23 +7222,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3D3ACC-BAF3-BFE7-32B8-19261F6FD370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6947647" y="6701118"/>
+          <a:ext cx="291353" cy="638735"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>58832</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>452718</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>184337</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="TextBox 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A45BD4-BABE-19FC-FF8F-F7D1414A2A60}"/>
+        <xdr:cNvPr id="61" name="TextBox 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDD8CB2-7BE3-8985-DDCF-6088986CDEBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7042,8 +7299,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10355357" y="6000750"/>
-          <a:ext cx="3636867" cy="1466850"/>
+          <a:off x="7309038" y="4370294"/>
+          <a:ext cx="2209239" cy="811867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7079,7 +7336,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Lock/Unlock</a:t>
+            <a:t>Search (optional)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7089,100 +7346,35 @@
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Change </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+            <a:t>- by</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>user.status</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0">
+            <a:t> any words input</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
+            <a:t>- show match items</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>value.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- locked: can't buy</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- normal</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>: no resistance</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Change </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>color</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> of display </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(for example: background-color gray; opacity 0.5)</a:t>
+            <a:t>*share with Search item</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -7196,131 +7388,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1B12DD-71EE-A6A4-A5F4-1D2915E271DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="49" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8810625" y="6705600"/>
-          <a:ext cx="1544732" cy="28575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>593912</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3D3ACC-BAF3-BFE7-32B8-19261F6FD370}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6947647" y="6701118"/>
-          <a:ext cx="291353" cy="638735"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>58832</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>452718</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>184337</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>148479</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="TextBox 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDD8CB2-7BE3-8985-DDCF-6088986CDEBE}"/>
+        <xdr:cNvPr id="68" name="TextBox 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9942C218-C012-4331-9880-13AD22814DE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7328,8 +7412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7309038" y="4370294"/>
-          <a:ext cx="2209239" cy="811867"/>
+          <a:off x="3801109" y="4072608"/>
+          <a:ext cx="1748239" cy="383435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7365,51 +7449,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Search (optional)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- by</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> any words input</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- show match items</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>*share with Search item</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:t>Total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> customers (users)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7417,23 +7463,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>148479</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6A44B9-AFFF-E0B8-9272-47A94D364A1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800475" y="4533900"/>
+          <a:ext cx="395080" cy="458442"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438370</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>24847</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>240195</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="TextBox 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9942C218-C012-4331-9880-13AD22814DE7}"/>
+        <xdr:cNvPr id="73" name="TextBox 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4095DED-42B9-7C23-38E2-55BEE4679646}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7441,8 +7540,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3801109" y="4072608"/>
-          <a:ext cx="1748239" cy="383435"/>
+          <a:off x="5922049" y="5029841"/>
+          <a:ext cx="1026467" cy="576302"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7482,7 +7581,13 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> customers (users)</a:t>
+            <a:t> order</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>(optional)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
@@ -7492,23 +7597,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>33130</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>603410</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339587</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>182217</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6A44B9-AFFF-E0B8-9272-47A94D364A1C}"/>
+        <xdr:cNvPr id="74" name="Straight Arrow Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00D1A79-3C1B-8947-708F-FF62E2A4B287}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7516,8 +7621,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3800475" y="4533900"/>
-          <a:ext cx="395080" cy="458442"/>
+          <a:off x="6094780" y="2223637"/>
+          <a:ext cx="349090" cy="1818276"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7545,23 +7650,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438370</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>73323</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>422413</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Arrow Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61194600-6105-5CCD-9E78-CC703C77F703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8016345" y="2223637"/>
+          <a:ext cx="349090" cy="1818276"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>537762</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>240195</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>538370</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="TextBox 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4095DED-42B9-7C23-38E2-55BEE4679646}"/>
+        <xdr:cNvPr id="76" name="TextBox 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217CC684-ADB9-65B6-4FD6-F830982488B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7569,8 +7727,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5922049" y="5029841"/>
-          <a:ext cx="1026467" cy="576302"/>
+          <a:off x="7858405" y="5029841"/>
+          <a:ext cx="1225251" cy="535480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7610,13 +7768,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> order</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>(optional)</a:t>
+            <a:t> Income (optional)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
@@ -7626,129 +7778,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>603410</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>339587</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>182217</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Straight Arrow Connector 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00D1A79-3C1B-8947-708F-FF62E2A4B287}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6094780" y="2223637"/>
-          <a:ext cx="349090" cy="1818276"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>73323</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>422413</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>182217</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="Straight Arrow Connector 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61194600-6105-5CCD-9E78-CC703C77F703}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8016345" y="2223637"/>
-          <a:ext cx="349090" cy="1818276"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>537762</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>538370</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>564072</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323021</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="TextBox 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217CC684-ADB9-65B6-4FD6-F830982488B4}"/>
+        <xdr:cNvPr id="86" name="TextBox 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB6B597-19B5-8CB0-97B8-AE99F8CD99C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7756,8 +7802,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7858405" y="5029841"/>
-          <a:ext cx="1225251" cy="535480"/>
+          <a:off x="3603789" y="1085022"/>
+          <a:ext cx="1597689" cy="333424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7792,14 +7838,18 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Total</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> Income (optional)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Jump to Shopping page</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7807,23 +7857,173 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>564072</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>505240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56757</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0606AEBC-7D26-9D66-56E6-330D9FEF4008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4770783" y="1358348"/>
+          <a:ext cx="164431" cy="649941"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>389283</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1DCDDA-E3AE-8C4D-E424-C909B8E86CA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4654826" y="1957578"/>
+          <a:ext cx="323022" cy="292739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>356153</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>73301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>373524</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11668</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F81675E-3470-446E-ABEB-414B0CD92A17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8912088" y="1646997"/>
+          <a:ext cx="1243197" cy="319367"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>422832</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>323021</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>35250</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>440199</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>54251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="TextBox 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB6B597-19B5-8CB0-97B8-AE99F8CD99C3}"/>
+        <xdr:cNvPr id="91" name="TextBox 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3235FCB-F9ED-4C2F-9CF3-F09835C3A5A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7831,8 +8031,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3603789" y="1085022"/>
-          <a:ext cx="1597689" cy="333424"/>
+          <a:off x="10204593" y="1466022"/>
+          <a:ext cx="1243193" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7867,12 +8067,91 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Admin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> avatar</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>597460</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>305733</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Rectangle 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F575BEF3-C805-4458-AD05-B78261ACEA88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3611842" y="7312959"/>
+          <a:ext cx="1523626" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Shopping</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Jump to Shopping page</a:t>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> page</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -7884,78 +8163,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>505240</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:colOff>355665</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>70117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>56757</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>53593</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="Straight Arrow Connector 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0606AEBC-7D26-9D66-56E6-330D9FEF4008}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4770783" y="1358348"/>
-          <a:ext cx="164431" cy="649941"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>389283</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>99391</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>105121</xdr:rowOff>
+      <xdr:colOff>72123</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>172356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Picture 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1DCDDA-E3AE-8C4D-E424-C909B8E86CA4}"/>
+        <xdr:cNvPr id="93" name="Picture 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2B64DA-6AE8-4CFD-B45E-DECA539C376D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7971,8 +8197,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4654826" y="1957578"/>
-          <a:ext cx="323022" cy="292739"/>
+          <a:off x="4580283" y="7353941"/>
+          <a:ext cx="315225" cy="292739"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7983,76 +8209,150 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>356153</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>373524</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>11668</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F81675E-3470-446E-ABEB-414B0CD92A17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8912088" y="1646997"/>
-          <a:ext cx="1243197" cy="319367"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3548</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>316939</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>155762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Rectangle 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD869079-4C18-8F98-C321-7D1891E5E4C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3623048" y="11840136"/>
+          <a:ext cx="1523626" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Shopping</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> page</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>366871</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76979</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>130708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2927881C-067B-5A64-FD59-1F7095ED63F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591489" y="11881118"/>
+          <a:ext cx="315225" cy="292739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>422832</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>440199</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>54251</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>52108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>77932</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="TextBox 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3235FCB-F9ED-4C2F-9CF3-F09835C3A5A5}"/>
+        <xdr:cNvPr id="104" name="TextBox 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA259BE0-CAEE-D1D2-A83C-0813791CFD3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8060,8 +8360,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10204593" y="1466022"/>
-          <a:ext cx="1243193" cy="352425"/>
+          <a:off x="10553394" y="14954403"/>
+          <a:ext cx="2261042" cy="1549824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8096,93 +8396,52 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Admin</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> avatar</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>597460</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>29135</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>305733</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>10085</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Rectangle 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F575BEF3-C805-4458-AD05-B78261ACEA88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3611842" y="7312959"/>
-          <a:ext cx="1523626" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Shopping</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> page</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Add item to itemList</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> localStorage: itemList</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>itemList = [{ },{ },{ },...];</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -8192,196 +8451,78 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>355665</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>70117</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>65773</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>172356</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Picture 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2B64DA-6AE8-4CFD-B45E-DECA539C376D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4580283" y="7353941"/>
-          <a:ext cx="315225" cy="292739"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3548</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>174812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>316939</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>155762</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>327770</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>30255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Straight Arrow Connector 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33AF067A-E765-586F-E8F9-BC85F092F568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10603564" y="14362579"/>
+          <a:ext cx="266142" cy="630892"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>122372</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>367891</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="Rectangle 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD869079-4C18-8F98-C321-7D1891E5E4C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3623048" y="11840136"/>
-          <a:ext cx="1523626" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Shopping</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> page</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>366871</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>25294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76979</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>127533</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Picture 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2927881C-067B-5A64-FD59-1F7095ED63F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4591489" y="11881118"/>
-          <a:ext cx="315225" cy="292739"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>52108</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>77932</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="TextBox 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA259BE0-CAEE-D1D2-A83C-0813791CFD3A}"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A8D858-78DB-AFB9-7E62-80915E19718E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8389,8 +8530,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10553394" y="14954403"/>
-          <a:ext cx="2261042" cy="1549824"/>
+          <a:off x="13571672" y="6229351"/>
+          <a:ext cx="2683919" cy="2486024"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8425,56 +8566,97 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>Add item to itemList</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>-&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//itemForOneUser</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t> localStorage: itemList</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>itemList = [{ },{ },{ },...];</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>constructor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" strike="sngStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function itemForOneUser (){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" strike="sngStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.itemId = [ ];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" strike="sngStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.itemQuantity =[ ];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" strike="sngStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8482,76 +8664,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>327770</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>30255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>593912</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="Straight Arrow Connector 104">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33AF067A-E765-586F-E8F9-BC85F092F568}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10603564" y="14362579"/>
-          <a:ext cx="266142" cy="630892"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>122372</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>4150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>144777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>367891</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A8D858-78DB-AFB9-7E62-80915E19718E}"/>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BC8FF6-F447-F7A1-6DFA-BB69767655EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8559,8 +8688,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13571672" y="6229351"/>
-          <a:ext cx="2683919" cy="2486024"/>
+          <a:off x="17138567" y="5722194"/>
+          <a:ext cx="3000271" cy="426723"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8595,7 +8724,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8604,10 +8733,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>//itemForOneUser</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+            <a:t>itemsInCart = [ ]; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8616,76 +8745,17 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>constructor</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" strike="sngStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>function itemForOneUser (){</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" strike="sngStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.itemId = [ ];</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" strike="sngStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.itemQuantity =[ ];</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" strike="sngStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
+            <a:t>   //item Id only</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8695,21 +8765,21 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>4150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>144777</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BC8FF6-F447-F7A1-6DFA-BB69767655EE}"/>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49DD3FF-5846-0AB7-0940-A37D26E1F7F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8717,8 +8787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17138567" y="5722194"/>
-          <a:ext cx="3000271" cy="426723"/>
+          <a:off x="17138567" y="7113402"/>
+          <a:ext cx="3022683" cy="474848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8752,6 +8822,23 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
@@ -8762,20 +8849,13 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>itemsInCart = [ ]; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   //item Id only</a:t>
-          </a:r>
+            <a:t>itemsInFavorite = [ ]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -8786,6 +8866,9 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -8794,21 +8877,21 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>4150</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>11985</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>179341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:colOff>582145</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49DD3FF-5846-0AB7-0940-A37D26E1F7F1}"/>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B587A418-0319-7C5F-727D-712DAB5D582A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8816,8 +8899,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17138567" y="7113402"/>
-          <a:ext cx="3022683" cy="474848"/>
+          <a:off x="17138567" y="7852258"/>
+          <a:ext cx="3033328" cy="487410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8878,7 +8961,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>itemsInFavorite = [ ]</a:t>
+            <a:t>itemsInSaved = [ ]</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -8904,23 +8987,129 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438630</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>164886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1E70B8-4534-643A-AAC1-8FCBECC50E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12042321" y="5075464"/>
+          <a:ext cx="3202" cy="1811351"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>481052</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121663</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AE4C68-4034-8306-F6A5-E512E474029C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12087945" y="5129092"/>
+          <a:ext cx="5628555" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>4150</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>179341</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>582145</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72387</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="TextBox 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B587A418-0319-7C5F-727D-712DAB5D582A}"/>
+        <xdr:cNvPr id="58" name="TextBox 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FE40E8-405E-8FAD-01E2-4118E2559275}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8928,8 +9117,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17138567" y="7852258"/>
-          <a:ext cx="3033328" cy="487410"/>
+          <a:off x="17811759" y="4856859"/>
+          <a:ext cx="2996590" cy="599224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8963,23 +9152,6 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
@@ -8990,24 +9162,46 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>itemsInSaved = [ ]</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
+            <a:t>//user</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>let  user =  new</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>userObject();</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -9016,129 +9210,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>542592</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438630</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>164886</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Straight Arrow Connector 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1E70B8-4534-643A-AAC1-8FCBECC50E2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="12042321" y="5075464"/>
-          <a:ext cx="3202" cy="1811351"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>481052</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>121663</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>121663</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AE4C68-4034-8306-F6A5-E512E474029C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12087945" y="5129092"/>
-          <a:ext cx="5628555" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>4150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>44663</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>72387</xdr:rowOff>
+      <xdr:rowOff>106455</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="TextBox 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FE40E8-405E-8FAD-01E2-4118E2559275}"/>
+        <xdr:cNvPr id="62" name="TextBox 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99481A9C-C325-8C44-C5F9-B849D8F0B0EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9146,8 +9234,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17811759" y="4856859"/>
-          <a:ext cx="2996590" cy="599224"/>
+          <a:off x="22613378" y="3258751"/>
+          <a:ext cx="3525943" cy="1855133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9182,7 +9270,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9191,12 +9279,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>//user</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
+            <a:t>localStorage:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9205,10 +9291,23 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>let  user =  new</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+            <a:t> userInforList</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9217,10 +9316,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
+            <a:t>userInforList = [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9229,9 +9328,68 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>userObject();</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:t>userInfor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, userInfor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, ...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ];</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9239,23 +9397,201 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>445834</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>20810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>542592</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>156322</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>106455</xdr:rowOff>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>20810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD3CDC9-7BF8-8BD0-BD7B-6BB2FA1A4B01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21291977" y="4266239"/>
+          <a:ext cx="1336702" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115981</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="TextBox 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99481A9C-C325-8C44-C5F9-B849D8F0B0EB}"/>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DAFA7A8-02C1-1A6A-45D5-0B6FADED34F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105151" y="3508000"/>
+          <a:ext cx="1628774" cy="846606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>500</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Items</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138EBEE8-4A83-6504-A5AD-6BAC5973088E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4190999" y="3600450"/>
+          <a:ext cx="504825" cy="642504"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>314441</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>134269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0947588C-3DB1-4E72-8C3C-5F8E3981852F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9263,8 +9599,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22613378" y="3258751"/>
-          <a:ext cx="3525943" cy="1855133"/>
+          <a:off x="16513969" y="9882187"/>
+          <a:ext cx="1981316" cy="1920207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9299,7 +9635,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9308,10 +9644,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>localStorage:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+            <a:t>//Item object constructor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9320,23 +9658,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> userInforList</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" b="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0">
+            <a:t>function item(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9345,10 +9672,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>userInforList = [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
+            <a:t>    this.itemId = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9357,22 +9686,26 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>userInfor</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:t>    this.itemName = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
+            <a:t>    this.category = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9381,22 +9714,26 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>, userInfor</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:t>    this.price  = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
+            <a:t>    this.imgSource = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9405,10 +9742,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>, ...</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0">
+            <a:t>    this.stock = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9417,7 +9756,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> ];</a:t>
+            <a:t>    this.type = 'item'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9426,76 +9779,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>445834</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>20810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>557893</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>20810</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD3CDC9-7BF8-8BD0-BD7B-6BB2FA1A4B01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21291977" y="4266239"/>
-          <a:ext cx="1336702" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>259441</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>109622</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>124829</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>219191</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>134269</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5122D6-47EB-285B-5F06-5F0A19CD607D}"/>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665C0D6B-B4FA-40C4-975C-16E9F37A768E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9503,8 +9803,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15537541" y="13873247"/>
-          <a:ext cx="1988459" cy="1920207"/>
+          <a:off x="18847594" y="9882187"/>
+          <a:ext cx="1981316" cy="1920207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9562,7 +9862,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>let itemRatingAndReview = {</a:t>
+            <a:t>function itemRatingAndReview (){</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9576,7 +9876,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    id: itemId,</a:t>
+            <a:t>    this.itemId = '';</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9590,10 +9890,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    rating:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+            <a:t>    this.rating = 0;    //initial</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9602,10 +9904,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> 0,                </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" baseline="0">
+            <a:t>    this.review = []</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9614,48 +9918,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(initial)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    review:  [ ]</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9663,148 +9927,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>31375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>115981</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>4150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>134194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Rectangle 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DAFA7A8-02C1-1A6A-45D5-0B6FADED34F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3105151" y="3508000"/>
-          <a:ext cx="1628774" cy="846606"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>500</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Items</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4329</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138EBEE8-4A83-6504-A5AD-6BAC5973088E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4190999" y="3600450"/>
-          <a:ext cx="504825" cy="642504"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>314441</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>134269</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0947588C-3DB1-4E72-8C3C-5F8E3981852F}"/>
+        <xdr:cNvPr id="44" name="TextBox 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B358DAD2-F0B8-D4C6-7BB1-1FBEF57441E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9812,8 +9951,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16513969" y="9882187"/>
-          <a:ext cx="1981316" cy="1920207"/>
+          <a:off x="17138567" y="8569111"/>
+          <a:ext cx="3000271" cy="426722"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9857,133 +9996,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>//Item object constructor</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>function item(){</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.itemId = '';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.itemName = '';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.category = '';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.price = '';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.img = '';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.stock = '';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.type = 'item'</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
+            <a:t>itemsBuyItAgain = [ ]</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9992,23 +10005,81 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>219191</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>134269</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665C0D6B-B4FA-40C4-975C-16E9F37A768E}"/>
+        <xdr:cNvPr id="52" name="Right Brace 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A7A383-A99A-1E6E-5AB0-D43D1773267D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20002500" y="6900333"/>
+          <a:ext cx="804333" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>59530</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>55561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>219190</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>10582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59A1998-F55D-E259-AA88-A23C7C9C819B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10016,8 +10087,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18847594" y="9882187"/>
-          <a:ext cx="1981316" cy="1920207"/>
+          <a:off x="20876947" y="7728478"/>
+          <a:ext cx="2001160" cy="717021"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10052,7 +10123,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" sz="2400" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10061,78 +10132,17 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>//Item rating &amp; review object constructor</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>function itemRatingAndReview (){</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.itemId = '';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.rating = 0;    //initial</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    this.review = []</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
+            <a:t>Optional</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10140,23 +10150,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>4150</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>134194</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>179916</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>118495</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>128134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>281330</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>143341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="TextBox 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B358DAD2-F0B8-D4C6-7BB1-1FBEF57441E0}"/>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB15625F-CAD1-38C8-BB15-37E75DE51397}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10164,8 +10174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17138567" y="8569111"/>
-          <a:ext cx="3000271" cy="426722"/>
+          <a:off x="12854781" y="13889491"/>
+          <a:ext cx="1986192" cy="1920207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10209,7 +10219,133 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>itemsBuyItAgain = [ ]</a:t>
+            <a:t>//Item object constructor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function item(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.itemId = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.itemName = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.category = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.price  = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.imgSource = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.stock = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.type = 'item'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10218,81 +10354,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>179916</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>179916</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>23245</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>128134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>186080</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>143341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Right Brace 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A7A383-A99A-1E6E-5AB0-D43D1773267D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20002500" y="6900333"/>
-          <a:ext cx="804333" cy="2286000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>59530</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>55561</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>219190</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>10582</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="TextBox 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59A1998-F55D-E259-AA88-A23C7C9C819B}"/>
+        <xdr:cNvPr id="31" name="TextBox 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F67CAF-BA05-8725-92CD-A7E90220A661}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10300,8 +10378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20876947" y="7728478"/>
-          <a:ext cx="2001160" cy="717021"/>
+          <a:off x="15190674" y="13889491"/>
+          <a:ext cx="1986192" cy="1920207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10336,7 +10414,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10345,17 +10423,78 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Optional</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2400" b="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:t>//Item rating &amp; review object constructor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function itemRatingAndReview (){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.itemId = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.rating = 0;    //initial</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    this.review = []</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10364,7 +10503,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14439,7 +14578,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19482,7 +19621,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20656,7 +20795,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21690,16 +21829,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A36A3AB-75F8-48A0-8E70-2629D6FB9237}">
-  <dimension ref="B1:E14"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
@@ -21711,7 +21850,7 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
@@ -21774,22 +21913,51 @@
       <c r="C14" t="s">
         <v>96</v>
       </c>
+      <c r="D14" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="16">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{E221E788-2EBF-40B8-8C3B-E3585572B5E0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11AF87-82A7-468A-8D96-81CF2BB39B7A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D800F0-F99C-47B6-B0F4-3731F0185DB9}">
   <dimension ref="A1:AQ101"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="R15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AK31" sqref="AK31:AK32"/>
+      <selection pane="bottomRight" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22195,326 +22363,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D3853C-29D5-449B-8AA1-1129D3EE9DEA}">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A2:F18"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1280</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="1">
-        <v>580</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2780</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="1">
-        <v>980</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="1">
-        <v>98</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="1">
-        <v>190</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="1">
-        <v>290</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="1">
-        <v>150</v>
-      </c>
-      <c r="E10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="1">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="1">
-        <v>98</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="1">
-        <v>128</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="1">
-        <v>190</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="1">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="1">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="1">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="1">
-        <v>150</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55527AE-C7AB-4C6E-A279-E068211F1548}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23336,4 +23190,318 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D3853C-29D5-449B-8AA1-1129D3EE9DEA}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A2:F18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1280</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1">
+        <v>580</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2780</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1">
+        <v>980</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1">
+        <v>190</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1">
+        <v>290</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1">
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1">
+        <v>128</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1">
+        <v>190</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1">
+        <v>150</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/designDocument/workman-description.xlsx
+++ b/designDocument/workman-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuant\Desktop\Module1\Module1_workman\designDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D31F45-F368-4EF7-AEFA-BF7B11DED7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8A1487-3D71-4D46-9A2F-12C4832CCA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13940" yWindow="450" windowWidth="18860" windowHeight="9420" tabRatio="656" firstSheet="1" activeTab="2" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="656" activeTab="8" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
   <si>
     <t>customers</t>
   </si>
@@ -332,6 +332,9 @@
     <t>SignUp, Login : add Press Enter event.
 Add flag whoIsLogIn in sessionStorage</t>
   </si>
+  <si>
+    <t>Admin page chưa làm đc nút di chuyển xuống dưới</t>
+  </si>
 </sst>
 </file>
 
@@ -925,15 +928,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>570675</xdr:colOff>
+      <xdr:colOff>564325</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>56888</xdr:rowOff>
+      <xdr:rowOff>88638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -956,8 +959,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676275" y="247650"/>
-          <a:ext cx="6600000" cy="2095238"/>
+          <a:off x="673100" y="279400"/>
+          <a:ext cx="6596825" cy="2095238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1040,13 +1043,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>450850</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1061,15 +1064,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590800" y="1724025"/>
-          <a:ext cx="295275" cy="247650"/>
+          <a:off x="2590800" y="1727200"/>
+          <a:ext cx="298450" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 55114"/>
             <a:gd name="adj2" fmla="val 96212"/>
-            <a:gd name="adj3" fmla="val 582430"/>
-            <a:gd name="adj4" fmla="val 823398"/>
+            <a:gd name="adj3" fmla="val 64481"/>
+            <a:gd name="adj4" fmla="val 2102121"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -1264,8 +1267,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1206637" y="7311369"/>
-          <a:ext cx="7182954" cy="2876235"/>
+          <a:off x="1198842" y="7340602"/>
+          <a:ext cx="7240120" cy="2890851"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -1614,8 +1617,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1212987" y="1821623"/>
-          <a:ext cx="7176604" cy="2876235"/>
+          <a:off x="1205192" y="1823572"/>
+          <a:ext cx="7233770" cy="2890851"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -3818,8 +3821,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1206637" y="11919187"/>
-          <a:ext cx="7182954" cy="2873060"/>
+          <a:off x="1198842" y="11971806"/>
+          <a:ext cx="7240120" cy="2887676"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -4454,7 +4457,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>item ID:</a:t>
+            <a:t>ID:</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0">
@@ -4478,26 +4481,18 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>item Name:</a:t>
+            <a:t>Name:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>item</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Category:</a:t>
+            <a:t>Category:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4651,7 +4646,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>item ID:</a:t>
+            <a:t>ID:</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0">
@@ -4675,26 +4670,18 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>item Name:</a:t>
+            <a:t>Name:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>item</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Category:</a:t>
+            <a:t>Category:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15934,8 +15921,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3055284" y="3762856"/>
-          <a:ext cx="5412289" cy="2023225"/>
+          <a:off x="3050988" y="3837001"/>
+          <a:ext cx="5479524" cy="2057403"/>
           <a:chOff x="2085975" y="3793672"/>
           <a:chExt cx="5452630" cy="2023225"/>
         </a:xfrm>
@@ -21936,14 +21923,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11AF87-82A7-468A-8D96-81CF2BB39B7A}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -21953,11 +21954,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D800F0-F99C-47B6-B0F4-3731F0185DB9}">
   <dimension ref="A1:AQ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23199,8 +23200,8 @@
   </sheetPr>
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/designDocument/workman-description.xlsx
+++ b/designDocument/workman-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuant\Desktop\Module1\Module1_workman\designDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8A1487-3D71-4D46-9A2F-12C4832CCA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA623A7A-E366-4517-8ADE-50B3C41E62BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="656" activeTab="8" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
+    <workbookView xWindow="2025" yWindow="435" windowWidth="17550" windowHeight="9720" tabRatio="709" activeTab="1" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
   <si>
     <t>customers</t>
   </si>
@@ -333,7 +333,10 @@
 Add flag whoIsLogIn in sessionStorage</t>
   </si>
   <si>
-    <t>Admin page chưa làm đc nút di chuyển xuống dưới</t>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>nút edit và lock chưa làm</t>
   </si>
 </sst>
 </file>
@@ -933,8 +936,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>564325</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>326200</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>88638</xdr:rowOff>
     </xdr:to>
@@ -971,16 +974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -995,7 +998,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829175" y="466725"/>
+          <a:off x="4829175" y="504825"/>
           <a:ext cx="209550" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
@@ -1040,16 +1043,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1222375</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1064,7 +1067,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590800" y="1727200"/>
+          <a:off x="2581275" y="1765300"/>
           <a:ext cx="298450" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
@@ -1267,8 +1270,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1198842" y="7340602"/>
-          <a:ext cx="7240120" cy="2890851"/>
+          <a:off x="1191931" y="7209867"/>
+          <a:ext cx="7161119" cy="2834822"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -1617,8 +1620,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1205192" y="1823572"/>
-          <a:ext cx="7233770" cy="2890851"/>
+          <a:off x="1198281" y="1797425"/>
+          <a:ext cx="7154769" cy="2834822"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -3821,8 +3824,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1198842" y="11971806"/>
-          <a:ext cx="7240120" cy="2887676"/>
+          <a:off x="1191931" y="11748249"/>
+          <a:ext cx="7161119" cy="2834822"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -15921,8 +15924,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3050988" y="3837001"/>
-          <a:ext cx="5479524" cy="2057403"/>
+          <a:off x="3055284" y="3762856"/>
+          <a:ext cx="5412289" cy="2023225"/>
           <a:chOff x="2085975" y="3793672"/>
           <a:chExt cx="5452630" cy="2023225"/>
         </a:xfrm>
@@ -21818,7 +21821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A36A3AB-75F8-48A0-8E70-2629D6FB9237}">
   <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -21923,25 +21926,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11AF87-82A7-468A-8D96-81CF2BB39B7A}">
-  <dimension ref="A2:B15"/>
+  <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -21955,7 +21965,7 @@
   <dimension ref="A1:AQ101"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
@@ -23200,7 +23210,7 @@
   </sheetPr>
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/designDocument/workman-description.xlsx
+++ b/designDocument/workman-description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuant\Desktop\Module1\Module1_workman\designDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA623A7A-E366-4517-8ADE-50B3C41E62BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7079F5-6BA0-4C07-B035-46CF5BB85E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="435" windowWidth="17550" windowHeight="9720" tabRatio="709" activeTab="1" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="8" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -343,7 +343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +388,12 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -416,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,7 +465,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -21928,7 +21935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11AF87-82A7-468A-8D96-81CF2BB39B7A}">
   <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -21965,10 +21972,10 @@
   <dimension ref="A1:AQ101"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="M34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomRight" activeCell="Z85" sqref="Z85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23210,8 +23217,8 @@
   </sheetPr>
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23247,7 +23254,7 @@
       <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="1">
@@ -23264,7 +23271,7 @@
       <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="1">
@@ -23281,7 +23288,7 @@
       <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="1">
@@ -23298,7 +23305,7 @@
       <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="1">
@@ -23315,7 +23322,7 @@
       <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -23332,7 +23339,7 @@
       <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>70</v>
       </c>
       <c r="D8" s="1">
@@ -23349,7 +23356,7 @@
       <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="1">
@@ -23366,7 +23373,7 @@
       <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="1">
@@ -23383,7 +23390,7 @@
       <c r="B11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="1">
@@ -23451,7 +23458,7 @@
       <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="17" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="1">
@@ -23468,7 +23475,7 @@
       <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="1">
@@ -23514,5 +23521,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/designDocument/workman-description.xlsx
+++ b/designDocument/workman-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuant\Desktop\Module1\Module1_workman\designDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7079F5-6BA0-4C07-B035-46CF5BB85E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F2897F-8F51-457E-8CFD-50B41F26D5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="8" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
+    <workbookView xWindow="23115" yWindow="2460" windowWidth="17955" windowHeight="10965" tabRatio="709" activeTab="3" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
   <si>
     <t>customers</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>nút edit và lock chưa làm</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>https://workman.jp/img/share/logo_workman_mark.svg</t>
   </si>
 </sst>
 </file>
@@ -21972,10 +21978,10 @@
   <dimension ref="A1:AQ101"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="M34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Z85" sqref="Z85"/>
+      <selection pane="bottomRight" activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22383,10 +22389,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55527AE-C7AB-4C6E-A279-E068211F1548}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22616,14 +22622,23 @@
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S1" r:id="rId1" xr:uid="{B6468761-9D2F-40BD-9384-7A76404DB0D2}"/>
     <hyperlink ref="S3" r:id="rId2" xr:uid="{FC4C1875-025B-4234-9DA4-6CC33014A9DA}"/>
     <hyperlink ref="S2" r:id="rId3" xr:uid="{A928F864-9C96-40DD-B159-D34EF0A6A241}"/>
+    <hyperlink ref="F60" r:id="rId4" xr:uid="{1B9018C1-58FE-419D-8D96-61AFF24FC8F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -22801,6 +22816,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55669BA-C4BC-472D-A82C-F4DC422487C3}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -22967,10 +22985,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EB38C6-79E9-4766-804E-372B2BE35E2E}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23217,8 +23238,8 @@
   </sheetPr>
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/designDocument/workman-description.xlsx
+++ b/designDocument/workman-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuant\Desktop\Module1\Module1_workman\designDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F2897F-8F51-457E-8CFD-50B41F26D5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59FEB3E-8B54-4619-9DBD-EFA1520609F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23115" yWindow="2460" windowWidth="17955" windowHeight="10965" tabRatio="709" activeTab="3" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="709" activeTab="1" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
   <si>
     <t>customers</t>
   </si>
@@ -336,13 +336,25 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>nút edit và lock chưa làm</t>
-  </si>
-  <si>
     <t>logo</t>
   </si>
   <si>
     <t>https://workman.jp/img/share/logo_workman_mark.svg</t>
+  </si>
+  <si>
+    <t>sessionStorage</t>
+  </si>
+  <si>
+    <t>whoIsLogIn</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>logInId</t>
+  </si>
+  <si>
+    <t>idOfUser</t>
   </si>
 </sst>
 </file>
@@ -952,7 +964,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>326200</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>88638</xdr:rowOff>
+      <xdr:rowOff>91813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1123,6 +1135,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>13093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46937023-38B9-660A-3600-74C5ECB95982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="3048001"/>
+          <a:ext cx="4387850" cy="3442092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1283,8 +1339,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1191931" y="7209867"/>
-          <a:ext cx="7161119" cy="2834822"/>
+          <a:off x="1198842" y="7340602"/>
+          <a:ext cx="7240120" cy="2890851"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -1633,8 +1689,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1198281" y="1797425"/>
-          <a:ext cx="7154769" cy="2834822"/>
+          <a:off x="1205192" y="1823572"/>
+          <a:ext cx="7233770" cy="2890851"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -3837,8 +3893,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1191931" y="11748249"/>
-          <a:ext cx="7161119" cy="2834822"/>
+          <a:off x="1198842" y="11971806"/>
+          <a:ext cx="7240120" cy="2887676"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -21834,7 +21890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A36A3AB-75F8-48A0-8E70-2629D6FB9237}">
   <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -21939,10 +21995,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11AF87-82A7-468A-8D96-81CF2BB39B7A}">
-  <dimension ref="A2:C15"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21951,20 +22007,22 @@
     <col min="3" max="3" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
       </c>
-      <c r="C15" t="s">
-        <v>100</v>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -21978,10 +22036,10 @@
   <dimension ref="A1:AQ101"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="X13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P58" sqref="P58"/>
+      <selection pane="bottomRight" activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21989,6 +22047,7 @@
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -22115,12 +22174,36 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="43:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="24:43" x14ac:dyDescent="0.25">
       <c r="AQ35" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="24:43" x14ac:dyDescent="0.25">
+      <c r="X47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="24:43" x14ac:dyDescent="0.25">
+      <c r="X48" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="X49" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="20:25" x14ac:dyDescent="0.25">
       <c r="T64" s="9" t="s">
         <v>33</v>
       </c>
@@ -22391,7 +22474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55527AE-C7AB-4C6E-A279-E068211F1548}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
@@ -22624,10 +22707,10 @@
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/designDocument/workman-description.xlsx
+++ b/designDocument/workman-description.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuant\Desktop\Module1\Module1_workman\designDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59FEB3E-8B54-4619-9DBD-EFA1520609F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D756F4-1297-4F57-91B4-03E9168A4C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="709" activeTab="1" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
+    <workbookView xWindow="1425" yWindow="795" windowWidth="15375" windowHeight="9210" tabRatio="709" activeTab="2" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="baka" sheetId="9" r:id="rId2"/>
-    <sheet name="admin" sheetId="1" r:id="rId3"/>
-    <sheet name="shopping(index)" sheetId="4" r:id="rId4"/>
-    <sheet name="cart" sheetId="5" r:id="rId5"/>
-    <sheet name="sign up" sheetId="6" r:id="rId6"/>
-    <sheet name="login" sheetId="7" r:id="rId7"/>
-    <sheet name="function-desc" sheetId="2" r:id="rId8"/>
-    <sheet name="Item list" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
+    <sheet name="admin" sheetId="1" r:id="rId4"/>
+    <sheet name="shopping(index)" sheetId="4" r:id="rId5"/>
+    <sheet name="cart" sheetId="5" r:id="rId6"/>
+    <sheet name="sign up" sheetId="6" r:id="rId7"/>
+    <sheet name="login" sheetId="7" r:id="rId8"/>
+    <sheet name="function-desc" sheetId="2" r:id="rId9"/>
+    <sheet name="Item list" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
   <si>
     <t>customers</t>
   </si>
@@ -356,6 +357,9 @@
   <si>
     <t>idOfUser</t>
   </si>
+  <si>
+    <t>array sort</t>
+  </si>
 </sst>
 </file>
 
@@ -1144,9 +1148,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:colOff>320675</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>13093</xdr:rowOff>
+      <xdr:rowOff>16268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1179,10 +1183,103 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>79230</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>278214</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>53619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5943782-8A90-FFA4-CFEC-A88696D746CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1736580" y="6797675"/>
+          <a:ext cx="6098134" cy="1828444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>522078</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601639</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628DA9DE-41FC-FE6D-6270-B7900785D478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="522078" y="549275"/>
+          <a:ext cx="8613961" cy="2698245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10562,7 +10659,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14637,7 +14734,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15993,8 +16090,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3055284" y="3762856"/>
-          <a:ext cx="5412289" cy="2023225"/>
+          <a:off x="3050988" y="3837001"/>
+          <a:ext cx="5479524" cy="2057403"/>
           <a:chOff x="2085975" y="3793672"/>
           <a:chExt cx="5452630" cy="2023225"/>
         </a:xfrm>
@@ -19680,7 +19777,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20854,7 +20951,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21993,12 +22090,327 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D3853C-29D5-449B-8AA1-1129D3EE9DEA}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A2:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1280</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1">
+        <v>580</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2780</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1">
+        <v>980</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1">
+        <v>190</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1">
+        <v>290</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1">
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1">
+        <v>128</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1">
+        <v>190</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1">
+        <v>150</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11AF87-82A7-468A-8D96-81CF2BB39B7A}">
-  <dimension ref="A2:B17"/>
+  <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22025,6 +22437,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22032,6 +22452,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFD0586-BC3F-4075-B66A-03FF886CAA45}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D800F0-F99C-47B6-B0F4-3731F0185DB9}">
   <dimension ref="A1:AQ101"/>
   <sheetViews>
@@ -22470,7 +22905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55527AE-C7AB-4C6E-A279-E068211F1548}">
   <dimension ref="A1:S60"/>
   <sheetViews>
@@ -22725,7 +23160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726A8A91-2E1C-4E34-A304-FBDB9334D0CB}">
   <dimension ref="A1:V19"/>
   <sheetViews>
@@ -22897,7 +23332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55669BA-C4BC-472D-A82C-F4DC422487C3}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -23066,7 +23501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EB38C6-79E9-4766-804E-372B2BE35E2E}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -23212,7 +23647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1159BDC3-93C3-445C-9BEA-F7F6F82CBE48}">
   <dimension ref="B3:I10"/>
   <sheetViews>
@@ -23312,319 +23747,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D3853C-29D5-449B-8AA1-1129D3EE9DEA}">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A2:F18"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1280</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="1">
-        <v>580</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2780</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="1">
-        <v>980</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="1">
-        <v>98</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="1">
-        <v>190</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="1">
-        <v>290</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="1">
-        <v>150</v>
-      </c>
-      <c r="E10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="1">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="1">
-        <v>98</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="1">
-        <v>128</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="1">
-        <v>190</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="1">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="1">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="1">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="1">
-        <v>150</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/designDocument/workman-description.xlsx
+++ b/designDocument/workman-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuant\Desktop\Module1\Module1_workman\designDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D756F4-1297-4F57-91B4-03E9168A4C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AA81CA-F551-4224-9415-A3FB55ECC2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="795" windowWidth="15375" windowHeight="9210" tabRatio="709" activeTab="2" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
+    <workbookView xWindow="13930" yWindow="40" windowWidth="15180" windowHeight="10240" tabRatio="709" firstSheet="2" activeTab="5" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -1436,8 +1436,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1198842" y="7340602"/>
-          <a:ext cx="7240120" cy="2890851"/>
+          <a:off x="1206637" y="7311369"/>
+          <a:ext cx="7182954" cy="2876235"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -1786,8 +1786,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1205192" y="1823572"/>
-          <a:ext cx="7233770" cy="2890851"/>
+          <a:off x="1212987" y="1821623"/>
+          <a:ext cx="7176604" cy="2876235"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -3990,8 +3990,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1198842" y="11971806"/>
-          <a:ext cx="7240120" cy="2887676"/>
+          <a:off x="1206637" y="11919187"/>
+          <a:ext cx="7182954" cy="2873060"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -22104,7 +22104,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
@@ -22455,8 +22455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFD0586-BC3F-4075-B66A-03FF886CAA45}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22470,11 +22470,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D800F0-F99C-47B6-B0F4-3731F0185DB9}">
   <dimension ref="A1:AQ101"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="X13" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="X49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AA24" sqref="AA24"/>
+      <selection pane="bottomRight" activeCell="Z55" sqref="Z55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22909,8 +22909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55527AE-C7AB-4C6E-A279-E068211F1548}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23164,8 +23164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726A8A91-2E1C-4E34-A304-FBDB9334D0CB}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/designDocument/workman-description.xlsx
+++ b/designDocument/workman-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuant\Desktop\Module1\Module1_workman\designDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AA81CA-F551-4224-9415-A3FB55ECC2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC0790F-84D0-4A4B-8D26-A2AF11CD4901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13930" yWindow="40" windowWidth="15180" windowHeight="10240" tabRatio="709" firstSheet="2" activeTab="5" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
+    <workbookView xWindow="5550" yWindow="0" windowWidth="14940" windowHeight="10920" tabRatio="709" firstSheet="2" activeTab="5" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -1436,8 +1436,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1206637" y="7311369"/>
-          <a:ext cx="7182954" cy="2876235"/>
+          <a:off x="1200701" y="7214739"/>
+          <a:ext cx="7246869" cy="2834822"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -1786,8 +1786,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1212987" y="1821623"/>
-          <a:ext cx="7176604" cy="2876235"/>
+          <a:off x="1207051" y="1802297"/>
+          <a:ext cx="7240519" cy="2834822"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -3990,8 +3990,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1206637" y="11919187"/>
-          <a:ext cx="7182954" cy="2873060"/>
+          <a:off x="1200701" y="11753121"/>
+          <a:ext cx="7246869" cy="2834822"/>
           <a:chOff x="3175373" y="1595719"/>
           <a:chExt cx="7161119" cy="2834822"/>
         </a:xfrm>
@@ -15535,16 +15535,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>462644</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>49342</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>294555</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>486372</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>113948</xdr:rowOff>
+      <xdr:rowOff>13094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15567,8 +15567,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11979235" y="779318"/>
-          <a:ext cx="15952380" cy="9742857"/>
+          <a:off x="10335026" y="669296"/>
+          <a:ext cx="15924875" cy="9742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16090,8 +16090,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3050988" y="3837001"/>
-          <a:ext cx="5479524" cy="2057403"/>
+          <a:off x="3055284" y="3762856"/>
+          <a:ext cx="5412289" cy="2023225"/>
           <a:chOff x="2085975" y="3793672"/>
           <a:chExt cx="5452630" cy="2023225"/>
         </a:xfrm>
@@ -23164,8 +23164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726A8A91-2E1C-4E34-A304-FBDB9334D0CB}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/designDocument/workman-description.xlsx
+++ b/designDocument/workman-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuant\Desktop\Module1\Module1_workman\designDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC0790F-84D0-4A4B-8D26-A2AF11CD4901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEC7C56-F8A0-4E08-8123-38D11188DB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="0" windowWidth="14940" windowHeight="10920" tabRatio="709" firstSheet="2" activeTab="5" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
+    <workbookView xWindow="3225" yWindow="0" windowWidth="15375" windowHeight="10920" tabRatio="709" firstSheet="3" activeTab="3" xr2:uid="{8F78B35A-A057-42E2-BE4F-2444DF86A27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -22097,8 +22097,8 @@
   </sheetPr>
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22470,8 +22470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D800F0-F99C-47B6-B0F4-3731F0185DB9}">
   <dimension ref="A1:AQ101"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="X49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AA34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="Z55" sqref="Z55"/>
@@ -23164,7 +23164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726A8A91-2E1C-4E34-A304-FBDB9334D0CB}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
